--- a/output/sample_output_data.xlsx
+++ b/output/sample_output_data.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>47398</t>
+          <t>漢字</t>
         </is>
       </c>
     </row>
